--- a/Data/LCY Current Accounts.xlsx
+++ b/Data/LCY Current Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>TC</t>
   </si>
@@ -75,6 +75,60 @@
   </si>
   <si>
     <t>17704592</t>
+  </si>
+  <si>
+    <t>1008617465</t>
+  </si>
+  <si>
+    <t>17704777</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1008617516</t>
+  </si>
+  <si>
+    <t>17704794</t>
+  </si>
+  <si>
+    <t>1008617534</t>
+  </si>
+  <si>
+    <t>17704802</t>
+  </si>
+  <si>
+    <t>1008617535</t>
+  </si>
+  <si>
+    <t>17704803</t>
+  </si>
+  <si>
+    <t>1008617545</t>
+  </si>
+  <si>
+    <t>17704810</t>
+  </si>
+  <si>
+    <t>1008617546</t>
+  </si>
+  <si>
+    <t>17704811</t>
+  </si>
+  <si>
+    <t>1008617549</t>
+  </si>
+  <si>
+    <t>17704816</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>1008617551</t>
+  </si>
+  <si>
+    <t>17704818</t>
   </si>
 </sst>
 </file>
@@ -119,7 +173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -237,6 +291,118 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/LCY Current Accounts.xlsx
+++ b/Data/LCY Current Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>TC</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>17704818</t>
+  </si>
+  <si>
+    <t>1008617677</t>
+  </si>
+  <si>
+    <t>17705019</t>
+  </si>
+  <si>
+    <t>1008617679</t>
+  </si>
+  <si>
+    <t>17705020</t>
   </si>
 </sst>
 </file>
@@ -173,7 +185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -403,6 +415,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/LCY Current Accounts.xlsx
+++ b/Data/LCY Current Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="88">
   <si>
     <t>TC</t>
   </si>
@@ -141,6 +141,141 @@
   </si>
   <si>
     <t>17705020</t>
+  </si>
+  <si>
+    <t>1008617712</t>
+  </si>
+  <si>
+    <t>17705034</t>
+  </si>
+  <si>
+    <t>1008617714</t>
+  </si>
+  <si>
+    <t>17705038</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1008617715</t>
+  </si>
+  <si>
+    <t>17705039</t>
+  </si>
+  <si>
+    <t>1008617727</t>
+  </si>
+  <si>
+    <t>17705205</t>
+  </si>
+  <si>
+    <t>1008617731</t>
+  </si>
+  <si>
+    <t>17705208</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1008617735</t>
+  </si>
+  <si>
+    <t>1008617737</t>
+  </si>
+  <si>
+    <t>1008617739</t>
+  </si>
+  <si>
+    <t>1008617740</t>
+  </si>
+  <si>
+    <t>1008617751</t>
+  </si>
+  <si>
+    <t>17705224</t>
+  </si>
+  <si>
+    <t>1008617753</t>
+  </si>
+  <si>
+    <t>17705226</t>
+  </si>
+  <si>
+    <t>1008617759</t>
+  </si>
+  <si>
+    <t>17705229</t>
+  </si>
+  <si>
+    <t>1008617761</t>
+  </si>
+  <si>
+    <t>17705231</t>
+  </si>
+  <si>
+    <t>1008617762</t>
+  </si>
+  <si>
+    <t>17705232</t>
+  </si>
+  <si>
+    <t>1008617763</t>
+  </si>
+  <si>
+    <t>17705233</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1008617770</t>
+  </si>
+  <si>
+    <t>1008617772</t>
+  </si>
+  <si>
+    <t>1008617773</t>
+  </si>
+  <si>
+    <t>1008617774</t>
+  </si>
+  <si>
+    <t>1008617775</t>
+  </si>
+  <si>
+    <t>1008617777</t>
+  </si>
+  <si>
+    <t>1008617778</t>
+  </si>
+  <si>
+    <t>1008617779</t>
+  </si>
+  <si>
+    <t>1008617782</t>
+  </si>
+  <si>
+    <t>17705259</t>
+  </si>
+  <si>
+    <t>1008617784</t>
+  </si>
+  <si>
+    <t>17705261</t>
+  </si>
+  <si>
+    <t>1008617785</t>
+  </si>
+  <si>
+    <t>17705262</t>
+  </si>
+  <si>
+    <t>1008617786</t>
+  </si>
+  <si>
+    <t>17705263</t>
   </si>
 </sst>
 </file>
@@ -185,7 +320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -443,6 +578,384 @@
         <v>23</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/LCY Current Accounts.xlsx
+++ b/Data/LCY Current Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="106">
   <si>
     <t>TC</t>
   </si>
@@ -276,6 +276,60 @@
   </si>
   <si>
     <t>17705263</t>
+  </si>
+  <si>
+    <t>1008617900</t>
+  </si>
+  <si>
+    <t>17706587</t>
+  </si>
+  <si>
+    <t>1008617901</t>
+  </si>
+  <si>
+    <t>17706588</t>
+  </si>
+  <si>
+    <t>1008617904</t>
+  </si>
+  <si>
+    <t>17706592</t>
+  </si>
+  <si>
+    <t>1008617917</t>
+  </si>
+  <si>
+    <t>17707507</t>
+  </si>
+  <si>
+    <t>1008617918</t>
+  </si>
+  <si>
+    <t>17707512</t>
+  </si>
+  <si>
+    <t>1008617924</t>
+  </si>
+  <si>
+    <t>17707515</t>
+  </si>
+  <si>
+    <t>1008617926</t>
+  </si>
+  <si>
+    <t>17707517</t>
+  </si>
+  <si>
+    <t>1008617927</t>
+  </si>
+  <si>
+    <t>17707519</t>
+  </si>
+  <si>
+    <t>1008617928</t>
+  </si>
+  <si>
+    <t>17707520</t>
   </si>
 </sst>
 </file>
@@ -320,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -956,6 +1010,132 @@
         <v>71</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/LCY Current Accounts.xlsx
+++ b/Data/LCY Current Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="199">
   <si>
     <t>TC</t>
   </si>
@@ -330,6 +330,285 @@
   </si>
   <si>
     <t>17707520</t>
+  </si>
+  <si>
+    <t>1008784099</t>
+  </si>
+  <si>
+    <t>17866574</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>1008784101</t>
+  </si>
+  <si>
+    <t>17866584</t>
+  </si>
+  <si>
+    <t>1008784103</t>
+  </si>
+  <si>
+    <t>17866586</t>
+  </si>
+  <si>
+    <t>1008784106</t>
+  </si>
+  <si>
+    <t>17866589</t>
+  </si>
+  <si>
+    <t>1008784108</t>
+  </si>
+  <si>
+    <t>17866592</t>
+  </si>
+  <si>
+    <t>1008784109</t>
+  </si>
+  <si>
+    <t>17866593</t>
+  </si>
+  <si>
+    <t>1008784111</t>
+  </si>
+  <si>
+    <t>17866595</t>
+  </si>
+  <si>
+    <t>1008784112</t>
+  </si>
+  <si>
+    <t>17866596</t>
+  </si>
+  <si>
+    <t>1008784116</t>
+  </si>
+  <si>
+    <t>17866600</t>
+  </si>
+  <si>
+    <t>1008784118</t>
+  </si>
+  <si>
+    <t>17866602</t>
+  </si>
+  <si>
+    <t>1008784119</t>
+  </si>
+  <si>
+    <t>17866603</t>
+  </si>
+  <si>
+    <t>1008784122</t>
+  </si>
+  <si>
+    <t>17866606</t>
+  </si>
+  <si>
+    <t>1008784123</t>
+  </si>
+  <si>
+    <t>17866607</t>
+  </si>
+  <si>
+    <t>1008784126</t>
+  </si>
+  <si>
+    <t>17866610</t>
+  </si>
+  <si>
+    <t>1008784127</t>
+  </si>
+  <si>
+    <t>17866611</t>
+  </si>
+  <si>
+    <t>1008784130</t>
+  </si>
+  <si>
+    <t>17866614</t>
+  </si>
+  <si>
+    <t>1008784133</t>
+  </si>
+  <si>
+    <t>17866617</t>
+  </si>
+  <si>
+    <t>1008784134</t>
+  </si>
+  <si>
+    <t>17866618</t>
+  </si>
+  <si>
+    <t>1008784136</t>
+  </si>
+  <si>
+    <t>17866620</t>
+  </si>
+  <si>
+    <t>1008784137</t>
+  </si>
+  <si>
+    <t>17866621</t>
+  </si>
+  <si>
+    <t>1008784140</t>
+  </si>
+  <si>
+    <t>17866624</t>
+  </si>
+  <si>
+    <t>1008784141</t>
+  </si>
+  <si>
+    <t>17866625</t>
+  </si>
+  <si>
+    <t>1008784144</t>
+  </si>
+  <si>
+    <t>17866628</t>
+  </si>
+  <si>
+    <t>1008784147</t>
+  </si>
+  <si>
+    <t>17866634</t>
+  </si>
+  <si>
+    <t>1008784148</t>
+  </si>
+  <si>
+    <t>17866635</t>
+  </si>
+  <si>
+    <t>1008784150</t>
+  </si>
+  <si>
+    <t>17866638</t>
+  </si>
+  <si>
+    <t>1008784152</t>
+  </si>
+  <si>
+    <t>17866640</t>
+  </si>
+  <si>
+    <t>1008784153</t>
+  </si>
+  <si>
+    <t>17866641</t>
+  </si>
+  <si>
+    <t>1008784156</t>
+  </si>
+  <si>
+    <t>17866644</t>
+  </si>
+  <si>
+    <t>1008784159</t>
+  </si>
+  <si>
+    <t>17866648</t>
+  </si>
+  <si>
+    <t>1008784161</t>
+  </si>
+  <si>
+    <t>17866651</t>
+  </si>
+  <si>
+    <t>1008784162</t>
+  </si>
+  <si>
+    <t>17866652</t>
+  </si>
+  <si>
+    <t>1008784165</t>
+  </si>
+  <si>
+    <t>17866655</t>
+  </si>
+  <si>
+    <t>1008784166</t>
+  </si>
+  <si>
+    <t>17866656</t>
+  </si>
+  <si>
+    <t>1008784169</t>
+  </si>
+  <si>
+    <t>17866659</t>
+  </si>
+  <si>
+    <t>1008784170</t>
+  </si>
+  <si>
+    <t>17866660</t>
+  </si>
+  <si>
+    <t>1008784173</t>
+  </si>
+  <si>
+    <t>17866663</t>
+  </si>
+  <si>
+    <t>1008784174</t>
+  </si>
+  <si>
+    <t>17866664</t>
+  </si>
+  <si>
+    <t>1008784176</t>
+  </si>
+  <si>
+    <t>17866667</t>
+  </si>
+  <si>
+    <t>1008784177</t>
+  </si>
+  <si>
+    <t>17866668</t>
+  </si>
+  <si>
+    <t>1008784179</t>
+  </si>
+  <si>
+    <t>17866585</t>
+  </si>
+  <si>
+    <t>1008784181</t>
+  </si>
+  <si>
+    <t>17866599</t>
+  </si>
+  <si>
+    <t>1008784182</t>
+  </si>
+  <si>
+    <t>17866629</t>
+  </si>
+  <si>
+    <t>1008784183</t>
+  </si>
+  <si>
+    <t>17866631</t>
+  </si>
+  <si>
+    <t>1008784185</t>
+  </si>
+  <si>
+    <t>17866637</t>
+  </si>
+  <si>
+    <t>1008784186</t>
+  </si>
+  <si>
+    <t>17866647</t>
   </si>
 </sst>
 </file>
@@ -374,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1136,6 +1415,650 @@
         <v>71</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" t="s">
+        <v>160</v>
+      </c>
+      <c r="D81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" t="s">
+        <v>170</v>
+      </c>
+      <c r="D86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" t="s">
+        <v>172</v>
+      </c>
+      <c r="D87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" t="s">
+        <v>180</v>
+      </c>
+      <c r="D91" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" t="s">
+        <v>182</v>
+      </c>
+      <c r="D92" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" t="s">
+        <v>184</v>
+      </c>
+      <c r="D93" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" t="s">
+        <v>186</v>
+      </c>
+      <c r="D94" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" t="s">
+        <v>188</v>
+      </c>
+      <c r="D95" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" t="s">
+        <v>192</v>
+      </c>
+      <c r="D97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" t="s">
+        <v>194</v>
+      </c>
+      <c r="D98" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" t="s">
+        <v>196</v>
+      </c>
+      <c r="D99" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" t="s">
+        <v>198</v>
+      </c>
+      <c r="D100" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/LCY Current Accounts.xlsx
+++ b/Data/LCY Current Accounts.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="212">
   <si>
     <t>TC</t>
   </si>
@@ -332,9 +339,6 @@
     <t>17707520</t>
   </si>
   <si>
-    <t>1008784099</t>
-  </si>
-  <si>
     <t>17866574</t>
   </si>
   <si>
@@ -609,16 +613,57 @@
   </si>
   <si>
     <t>17866647</t>
+  </si>
+  <si>
+    <t>1008784189</t>
+  </si>
+  <si>
+    <t>17866685</t>
+  </si>
+  <si>
+    <t>1008784190</t>
+  </si>
+  <si>
+    <t>17866686</t>
+  </si>
+  <si>
+    <t>1008784193</t>
+  </si>
+  <si>
+    <t>17866690</t>
+  </si>
+  <si>
+    <t>1008784195</t>
+  </si>
+  <si>
+    <t>17866692</t>
+  </si>
+  <si>
+    <t>1008784196</t>
+  </si>
+  <si>
+    <t>17866693</t>
+  </si>
+  <si>
+    <t>1008784199</t>
+  </si>
+  <si>
+    <t>17866696</t>
+  </si>
+  <si>
+    <t>1008784200</t>
+  </si>
+  <si>
+    <t>17866697</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -630,7 +675,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -648,18 +693,297 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -687,7 +1011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -701,7 +1025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -715,7 +1039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -729,7 +1053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -743,7 +1067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -757,7 +1081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -771,7 +1095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -785,7 +1109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -799,7 +1123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -813,7 +1137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -827,7 +1151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -841,7 +1165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -855,7 +1179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -869,7 +1193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -883,7 +1207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -897,7 +1221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -911,7 +1235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -925,7 +1249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -939,7 +1263,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -953,7 +1277,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -967,7 +1291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -981,7 +1305,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -995,7 +1319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1009,7 +1333,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1023,7 +1347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +1361,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1051,7 +1375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1065,7 +1389,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1079,7 +1403,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1093,7 +1417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1107,7 +1431,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1121,7 +1445,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1135,7 +1459,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1149,7 +1473,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1163,7 +1487,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1177,7 +1501,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1515,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1205,7 +1529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1219,7 +1543,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1557,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1261,7 +1585,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1275,7 +1599,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -1289,7 +1613,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -1303,7 +1627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1317,7 +1641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -1331,7 +1655,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +1683,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1373,7 +1697,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -1387,7 +1711,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -1401,7 +1725,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -1415,651 +1739,749 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55">
+        <v>1008784099</v>
+      </c>
+      <c r="C55" t="s">
         <v>106</v>
       </c>
-      <c r="C55" t="s">
-        <v>107</v>
-      </c>
       <c r="D55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>109</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
         <v>110</v>
       </c>
-      <c r="D56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>111</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
         <v>112</v>
       </c>
-      <c r="D57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>113</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
         <v>114</v>
       </c>
-      <c r="D58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>115</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
         <v>116</v>
       </c>
-      <c r="D59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>117</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
         <v>118</v>
       </c>
-      <c r="D60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>119</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
         <v>120</v>
       </c>
-      <c r="D61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>121</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
         <v>122</v>
       </c>
-      <c r="D62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>123</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
         <v>124</v>
       </c>
-      <c r="D63" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>125</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
         <v>126</v>
       </c>
-      <c r="D64" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>127</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
         <v>128</v>
       </c>
-      <c r="D65" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>129</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
         <v>130</v>
       </c>
-      <c r="D66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>131</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
         <v>132</v>
       </c>
-      <c r="D67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>133</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
         <v>134</v>
       </c>
-      <c r="D68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>135</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
         <v>136</v>
       </c>
-      <c r="D69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>137</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
         <v>138</v>
       </c>
-      <c r="D70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>139</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
         <v>140</v>
       </c>
-      <c r="D71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>141</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
         <v>142</v>
       </c>
-      <c r="D72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>143</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
         <v>144</v>
       </c>
-      <c r="D73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>145</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
         <v>146</v>
       </c>
-      <c r="D74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>147</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
         <v>148</v>
       </c>
-      <c r="D75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>149</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
         <v>150</v>
       </c>
-      <c r="D76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>151</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
         <v>152</v>
       </c>
-      <c r="D77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>153</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
         <v>154</v>
       </c>
-      <c r="D78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>155</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
         <v>156</v>
       </c>
-      <c r="D79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>157</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
         <v>158</v>
       </c>
-      <c r="D80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>159</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
         <v>160</v>
       </c>
-      <c r="D81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>161</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
         <v>162</v>
       </c>
-      <c r="D82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>163</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
         <v>164</v>
       </c>
-      <c r="D83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>165</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
         <v>166</v>
       </c>
-      <c r="D84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>167</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
         <v>168</v>
       </c>
-      <c r="D85" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>169</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
         <v>170</v>
       </c>
-      <c r="D86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>171</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
         <v>172</v>
       </c>
-      <c r="D87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>4</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>173</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
         <v>174</v>
       </c>
-      <c r="D88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>175</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
         <v>176</v>
       </c>
-      <c r="D89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>177</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
         <v>178</v>
       </c>
-      <c r="D90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>179</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
         <v>180</v>
       </c>
-      <c r="D91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>181</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
         <v>182</v>
       </c>
-      <c r="D92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>183</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
         <v>184</v>
       </c>
-      <c r="D93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>185</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
         <v>186</v>
       </c>
-      <c r="D94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>187</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
         <v>188</v>
       </c>
-      <c r="D95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>189</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
         <v>190</v>
       </c>
-      <c r="D96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>191</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
         <v>192</v>
       </c>
-      <c r="D97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>193</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
         <v>194</v>
       </c>
-      <c r="D98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>195</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
         <v>196</v>
       </c>
-      <c r="D99" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>197</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
         <v>198</v>
       </c>
-      <c r="D100" t="s">
-        <v>108</v>
+      <c r="C101" t="s">
+        <v>199</v>
+      </c>
+      <c r="D101" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" t="s">
+        <v>201</v>
+      </c>
+      <c r="D102" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" t="s">
+        <v>203</v>
+      </c>
+      <c r="D103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105" t="s">
+        <v>207</v>
+      </c>
+      <c r="D105" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" t="s">
+        <v>209</v>
+      </c>
+      <c r="D106" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" t="s">
+        <v>211</v>
+      </c>
+      <c r="D107" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/LCY Current Accounts.xlsx
+++ b/Data/LCY Current Accounts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Data\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="215">
   <si>
     <t>TC</t>
   </si>
@@ -655,12 +655,22 @@
   </si>
   <si>
     <t>17866697</t>
+  </si>
+  <si>
+    <t>118500</t>
+  </si>
+  <si>
+    <t>1008784223</t>
+  </si>
+  <si>
+    <t>17866729</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -972,7 +982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
@@ -980,7 +990,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2481,6 +2491,20 @@
         <v>107</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" t="s">
+        <v>214</v>
+      </c>
+      <c r="D108" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/LCY Current Accounts.xlsx
+++ b/Data/LCY Current Accounts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="232">
   <si>
     <t>TC</t>
   </si>
@@ -664,6 +664,57 @@
   </si>
   <si>
     <t>17866729</t>
+  </si>
+  <si>
+    <t>118518</t>
+  </si>
+  <si>
+    <t>1008784259</t>
+  </si>
+  <si>
+    <t>17866753</t>
+  </si>
+  <si>
+    <t>1008784262</t>
+  </si>
+  <si>
+    <t>17866756</t>
+  </si>
+  <si>
+    <t>1008784263</t>
+  </si>
+  <si>
+    <t>17866759</t>
+  </si>
+  <si>
+    <t>1008784271</t>
+  </si>
+  <si>
+    <t>17866762</t>
+  </si>
+  <si>
+    <t>1008784272</t>
+  </si>
+  <si>
+    <t>17866763</t>
+  </si>
+  <si>
+    <t>1008784274</t>
+  </si>
+  <si>
+    <t>17866770</t>
+  </si>
+  <si>
+    <t>1008784292</t>
+  </si>
+  <si>
+    <t>17868020</t>
+  </si>
+  <si>
+    <t>1008784294</t>
+  </si>
+  <si>
+    <t>17868022</t>
   </si>
 </sst>
 </file>
@@ -982,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
@@ -990,7 +1041,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2505,6 +2556,118 @@
         <v>54</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109" t="s">
+        <v>217</v>
+      </c>
+      <c r="D109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110" t="s">
+        <v>219</v>
+      </c>
+      <c r="D110" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" t="s">
+        <v>221</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" t="s">
+        <v>222</v>
+      </c>
+      <c r="C112" t="s">
+        <v>223</v>
+      </c>
+      <c r="D112" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>215</v>
+      </c>
+      <c r="B113" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" t="s">
+        <v>225</v>
+      </c>
+      <c r="D113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" t="s">
+        <v>226</v>
+      </c>
+      <c r="C114" t="s">
+        <v>227</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>212</v>
+      </c>
+      <c r="B115" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" t="s">
+        <v>229</v>
+      </c>
+      <c r="D115" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>215</v>
+      </c>
+      <c r="B116" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" t="s">
+        <v>231</v>
+      </c>
+      <c r="D116" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/LCY Current Accounts.xlsx
+++ b/Data/LCY Current Accounts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="384">
   <si>
     <t>TC</t>
   </si>
@@ -715,6 +715,462 @@
   </si>
   <si>
     <t>17868022</t>
+  </si>
+  <si>
+    <t>1008784303</t>
+  </si>
+  <si>
+    <t>17868037</t>
+  </si>
+  <si>
+    <t>1008784308</t>
+  </si>
+  <si>
+    <t>17898797</t>
+  </si>
+  <si>
+    <t>1008784310</t>
+  </si>
+  <si>
+    <t>17898799</t>
+  </si>
+  <si>
+    <t>1008784311</t>
+  </si>
+  <si>
+    <t>17898800</t>
+  </si>
+  <si>
+    <t>1008784312</t>
+  </si>
+  <si>
+    <t>17898801</t>
+  </si>
+  <si>
+    <t>1008784331</t>
+  </si>
+  <si>
+    <t>17898811</t>
+  </si>
+  <si>
+    <t>1008784333</t>
+  </si>
+  <si>
+    <t>17898813</t>
+  </si>
+  <si>
+    <t>1008784334</t>
+  </si>
+  <si>
+    <t>17898814</t>
+  </si>
+  <si>
+    <t>1008784335</t>
+  </si>
+  <si>
+    <t>17898815</t>
+  </si>
+  <si>
+    <t>1008784340</t>
+  </si>
+  <si>
+    <t>17898820</t>
+  </si>
+  <si>
+    <t>1008784346</t>
+  </si>
+  <si>
+    <t>17898843</t>
+  </si>
+  <si>
+    <t>1008784348</t>
+  </si>
+  <si>
+    <t>17898845</t>
+  </si>
+  <si>
+    <t>1008784350</t>
+  </si>
+  <si>
+    <t>17898847</t>
+  </si>
+  <si>
+    <t>1008784354</t>
+  </si>
+  <si>
+    <t>17898852</t>
+  </si>
+  <si>
+    <t>1008784355</t>
+  </si>
+  <si>
+    <t>17898853</t>
+  </si>
+  <si>
+    <t>1008784357</t>
+  </si>
+  <si>
+    <t>17898855</t>
+  </si>
+  <si>
+    <t>1008784358</t>
+  </si>
+  <si>
+    <t>17898856</t>
+  </si>
+  <si>
+    <t>1008784359</t>
+  </si>
+  <si>
+    <t>17898857</t>
+  </si>
+  <si>
+    <t>1008784364</t>
+  </si>
+  <si>
+    <t>17898862</t>
+  </si>
+  <si>
+    <t>1008784365</t>
+  </si>
+  <si>
+    <t>17898863</t>
+  </si>
+  <si>
+    <t>1008784367</t>
+  </si>
+  <si>
+    <t>17898865</t>
+  </si>
+  <si>
+    <t>1008784368</t>
+  </si>
+  <si>
+    <t>17898866</t>
+  </si>
+  <si>
+    <t>1008784369</t>
+  </si>
+  <si>
+    <t>17898867</t>
+  </si>
+  <si>
+    <t>1008784372</t>
+  </si>
+  <si>
+    <t>17898872</t>
+  </si>
+  <si>
+    <t>1008784373</t>
+  </si>
+  <si>
+    <t>17898874</t>
+  </si>
+  <si>
+    <t>1008784375</t>
+  </si>
+  <si>
+    <t>17898876</t>
+  </si>
+  <si>
+    <t>1008784376</t>
+  </si>
+  <si>
+    <t>17898877</t>
+  </si>
+  <si>
+    <t>1008784377</t>
+  </si>
+  <si>
+    <t>17898878</t>
+  </si>
+  <si>
+    <t>1008784381</t>
+  </si>
+  <si>
+    <t>17898885</t>
+  </si>
+  <si>
+    <t>1008784382</t>
+  </si>
+  <si>
+    <t>17898886</t>
+  </si>
+  <si>
+    <t>1008784384</t>
+  </si>
+  <si>
+    <t>17898888</t>
+  </si>
+  <si>
+    <t>1008784385</t>
+  </si>
+  <si>
+    <t>17898890</t>
+  </si>
+  <si>
+    <t>1008784386</t>
+  </si>
+  <si>
+    <t>17898891</t>
+  </si>
+  <si>
+    <t>1008784390</t>
+  </si>
+  <si>
+    <t>17898900</t>
+  </si>
+  <si>
+    <t>1008784391</t>
+  </si>
+  <si>
+    <t>17898901</t>
+  </si>
+  <si>
+    <t>1008784393</t>
+  </si>
+  <si>
+    <t>17898904</t>
+  </si>
+  <si>
+    <t>1008784394</t>
+  </si>
+  <si>
+    <t>17898906</t>
+  </si>
+  <si>
+    <t>1008784403</t>
+  </si>
+  <si>
+    <t>17898938</t>
+  </si>
+  <si>
+    <t>1008784404</t>
+  </si>
+  <si>
+    <t>17898939</t>
+  </si>
+  <si>
+    <t>1008784406</t>
+  </si>
+  <si>
+    <t>17898942</t>
+  </si>
+  <si>
+    <t>1008784407</t>
+  </si>
+  <si>
+    <t>17898944</t>
+  </si>
+  <si>
+    <t>1008784414</t>
+  </si>
+  <si>
+    <t>17898953</t>
+  </si>
+  <si>
+    <t>1008784418</t>
+  </si>
+  <si>
+    <t>17898956</t>
+  </si>
+  <si>
+    <t>1008784420</t>
+  </si>
+  <si>
+    <t>17898968</t>
+  </si>
+  <si>
+    <t>1008784421</t>
+  </si>
+  <si>
+    <t>17898969</t>
+  </si>
+  <si>
+    <t>1008784424</t>
+  </si>
+  <si>
+    <t>17898975</t>
+  </si>
+  <si>
+    <t>1008784426</t>
+  </si>
+  <si>
+    <t>17898994</t>
+  </si>
+  <si>
+    <t>1008784427</t>
+  </si>
+  <si>
+    <t>17898995</t>
+  </si>
+  <si>
+    <t>1008784431</t>
+  </si>
+  <si>
+    <t>17899006</t>
+  </si>
+  <si>
+    <t>1008784432</t>
+  </si>
+  <si>
+    <t>17899007</t>
+  </si>
+  <si>
+    <t>1008784435</t>
+  </si>
+  <si>
+    <t>17899014</t>
+  </si>
+  <si>
+    <t>1008784436</t>
+  </si>
+  <si>
+    <t>17899015</t>
+  </si>
+  <si>
+    <t>1008784440</t>
+  </si>
+  <si>
+    <t>17899019</t>
+  </si>
+  <si>
+    <t>1008784441</t>
+  </si>
+  <si>
+    <t>17899020</t>
+  </si>
+  <si>
+    <t>1008784445</t>
+  </si>
+  <si>
+    <t>17899026</t>
+  </si>
+  <si>
+    <t>1008784446</t>
+  </si>
+  <si>
+    <t>17899027</t>
+  </si>
+  <si>
+    <t>1008784448</t>
+  </si>
+  <si>
+    <t>17899029</t>
+  </si>
+  <si>
+    <t>1008784449</t>
+  </si>
+  <si>
+    <t>17899031</t>
+  </si>
+  <si>
+    <t>1008784451</t>
+  </si>
+  <si>
+    <t>17899033</t>
+  </si>
+  <si>
+    <t>1008784454</t>
+  </si>
+  <si>
+    <t>17899036</t>
+  </si>
+  <si>
+    <t>1008784456</t>
+  </si>
+  <si>
+    <t>17899038</t>
+  </si>
+  <si>
+    <t>1008784458</t>
+  </si>
+  <si>
+    <t>17899041</t>
+  </si>
+  <si>
+    <t>1008784460</t>
+  </si>
+  <si>
+    <t>17899044</t>
+  </si>
+  <si>
+    <t>1008784461</t>
+  </si>
+  <si>
+    <t>17899045</t>
+  </si>
+  <si>
+    <t>1008784463</t>
+  </si>
+  <si>
+    <t>17899047</t>
+  </si>
+  <si>
+    <t>1008784464</t>
+  </si>
+  <si>
+    <t>17899049</t>
+  </si>
+  <si>
+    <t>1008784465</t>
+  </si>
+  <si>
+    <t>17899050</t>
+  </si>
+  <si>
+    <t>1008784467</t>
+  </si>
+  <si>
+    <t>17899054</t>
+  </si>
+  <si>
+    <t>1008784470</t>
+  </si>
+  <si>
+    <t>17899059</t>
+  </si>
+  <si>
+    <t>1008784471</t>
+  </si>
+  <si>
+    <t>17899060</t>
+  </si>
+  <si>
+    <t>1008784473</t>
+  </si>
+  <si>
+    <t>17899062</t>
+  </si>
+  <si>
+    <t>1008784475</t>
+  </si>
+  <si>
+    <t>17899064</t>
+  </si>
+  <si>
+    <t>1008784476</t>
+  </si>
+  <si>
+    <t>17899065</t>
+  </si>
+  <si>
+    <t>1008784478</t>
+  </si>
+  <si>
+    <t>17899069</t>
+  </si>
+  <si>
+    <t>1008784481</t>
+  </si>
+  <si>
+    <t>17899072</t>
+  </si>
+  <si>
+    <t>1008784483</t>
+  </si>
+  <si>
+    <t>17899074</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D192"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
@@ -2668,6 +3124,1070 @@
         <v>47</v>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>212</v>
+      </c>
+      <c r="B117" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" t="s">
+        <v>233</v>
+      </c>
+      <c r="D117" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>212</v>
+      </c>
+      <c r="B118" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" t="s">
+        <v>235</v>
+      </c>
+      <c r="D118" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>215</v>
+      </c>
+      <c r="B119" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119" t="s">
+        <v>237</v>
+      </c>
+      <c r="D119" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>215</v>
+      </c>
+      <c r="B120" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D120" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>215</v>
+      </c>
+      <c r="B121" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" t="s">
+        <v>241</v>
+      </c>
+      <c r="D121" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>212</v>
+      </c>
+      <c r="B122" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" t="s">
+        <v>243</v>
+      </c>
+      <c r="D122" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>215</v>
+      </c>
+      <c r="B123" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" t="s">
+        <v>245</v>
+      </c>
+      <c r="D123" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>215</v>
+      </c>
+      <c r="B124" t="s">
+        <v>246</v>
+      </c>
+      <c r="C124" t="s">
+        <v>247</v>
+      </c>
+      <c r="D124" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>215</v>
+      </c>
+      <c r="B125" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" t="s">
+        <v>249</v>
+      </c>
+      <c r="D125" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>215</v>
+      </c>
+      <c r="B126" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126" t="s">
+        <v>251</v>
+      </c>
+      <c r="D126" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>212</v>
+      </c>
+      <c r="B127" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127" t="s">
+        <v>253</v>
+      </c>
+      <c r="D127" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>215</v>
+      </c>
+      <c r="B128" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128" t="s">
+        <v>255</v>
+      </c>
+      <c r="D128" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>215</v>
+      </c>
+      <c r="B129" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" t="s">
+        <v>257</v>
+      </c>
+      <c r="D129" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>215</v>
+      </c>
+      <c r="B130" t="s">
+        <v>258</v>
+      </c>
+      <c r="C130" t="s">
+        <v>259</v>
+      </c>
+      <c r="D130" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>215</v>
+      </c>
+      <c r="B131" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" t="s">
+        <v>261</v>
+      </c>
+      <c r="D131" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>215</v>
+      </c>
+      <c r="B132" t="s">
+        <v>262</v>
+      </c>
+      <c r="C132" t="s">
+        <v>263</v>
+      </c>
+      <c r="D132" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>215</v>
+      </c>
+      <c r="B133" t="s">
+        <v>264</v>
+      </c>
+      <c r="C133" t="s">
+        <v>265</v>
+      </c>
+      <c r="D133" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>215</v>
+      </c>
+      <c r="B134" t="s">
+        <v>266</v>
+      </c>
+      <c r="C134" t="s">
+        <v>267</v>
+      </c>
+      <c r="D134" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>215</v>
+      </c>
+      <c r="B135" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" t="s">
+        <v>269</v>
+      </c>
+      <c r="D135" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>215</v>
+      </c>
+      <c r="B136" t="s">
+        <v>270</v>
+      </c>
+      <c r="C136" t="s">
+        <v>271</v>
+      </c>
+      <c r="D136" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>215</v>
+      </c>
+      <c r="B137" t="s">
+        <v>272</v>
+      </c>
+      <c r="C137" t="s">
+        <v>273</v>
+      </c>
+      <c r="D137" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>215</v>
+      </c>
+      <c r="B138" t="s">
+        <v>274</v>
+      </c>
+      <c r="C138" t="s">
+        <v>275</v>
+      </c>
+      <c r="D138" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>215</v>
+      </c>
+      <c r="B139" t="s">
+        <v>276</v>
+      </c>
+      <c r="C139" t="s">
+        <v>277</v>
+      </c>
+      <c r="D139" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>215</v>
+      </c>
+      <c r="B140" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" t="s">
+        <v>279</v>
+      </c>
+      <c r="D140" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>215</v>
+      </c>
+      <c r="B141" t="s">
+        <v>280</v>
+      </c>
+      <c r="C141" t="s">
+        <v>281</v>
+      </c>
+      <c r="D141" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>215</v>
+      </c>
+      <c r="B142" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" t="s">
+        <v>283</v>
+      </c>
+      <c r="D142" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>212</v>
+      </c>
+      <c r="B143" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" t="s">
+        <v>285</v>
+      </c>
+      <c r="D143" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>215</v>
+      </c>
+      <c r="B144" t="s">
+        <v>286</v>
+      </c>
+      <c r="C144" t="s">
+        <v>287</v>
+      </c>
+      <c r="D144" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>215</v>
+      </c>
+      <c r="B145" t="s">
+        <v>288</v>
+      </c>
+      <c r="C145" t="s">
+        <v>289</v>
+      </c>
+      <c r="D145" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>215</v>
+      </c>
+      <c r="B146" t="s">
+        <v>290</v>
+      </c>
+      <c r="C146" t="s">
+        <v>291</v>
+      </c>
+      <c r="D146" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>215</v>
+      </c>
+      <c r="B147" t="s">
+        <v>292</v>
+      </c>
+      <c r="C147" t="s">
+        <v>293</v>
+      </c>
+      <c r="D147" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>215</v>
+      </c>
+      <c r="B148" t="s">
+        <v>294</v>
+      </c>
+      <c r="C148" t="s">
+        <v>295</v>
+      </c>
+      <c r="D148" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>212</v>
+      </c>
+      <c r="B149" t="s">
+        <v>296</v>
+      </c>
+      <c r="C149" t="s">
+        <v>297</v>
+      </c>
+      <c r="D149" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>215</v>
+      </c>
+      <c r="B150" t="s">
+        <v>298</v>
+      </c>
+      <c r="C150" t="s">
+        <v>299</v>
+      </c>
+      <c r="D150" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>215</v>
+      </c>
+      <c r="B151" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151" t="s">
+        <v>301</v>
+      </c>
+      <c r="D151" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>215</v>
+      </c>
+      <c r="B152" t="s">
+        <v>302</v>
+      </c>
+      <c r="C152" t="s">
+        <v>303</v>
+      </c>
+      <c r="D152" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>212</v>
+      </c>
+      <c r="B153" t="s">
+        <v>304</v>
+      </c>
+      <c r="C153" t="s">
+        <v>305</v>
+      </c>
+      <c r="D153" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>215</v>
+      </c>
+      <c r="B154" t="s">
+        <v>306</v>
+      </c>
+      <c r="C154" t="s">
+        <v>307</v>
+      </c>
+      <c r="D154" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>215</v>
+      </c>
+      <c r="B155" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" t="s">
+        <v>309</v>
+      </c>
+      <c r="D155" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>215</v>
+      </c>
+      <c r="B156" t="s">
+        <v>310</v>
+      </c>
+      <c r="C156" t="s">
+        <v>311</v>
+      </c>
+      <c r="D156" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>215</v>
+      </c>
+      <c r="B157" t="s">
+        <v>312</v>
+      </c>
+      <c r="C157" t="s">
+        <v>313</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>215</v>
+      </c>
+      <c r="B158" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158" t="s">
+        <v>315</v>
+      </c>
+      <c r="D158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>215</v>
+      </c>
+      <c r="B159" t="s">
+        <v>316</v>
+      </c>
+      <c r="C159" t="s">
+        <v>317</v>
+      </c>
+      <c r="D159" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>215</v>
+      </c>
+      <c r="B160" t="s">
+        <v>318</v>
+      </c>
+      <c r="C160" t="s">
+        <v>319</v>
+      </c>
+      <c r="D160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>215</v>
+      </c>
+      <c r="B161" t="s">
+        <v>320</v>
+      </c>
+      <c r="C161" t="s">
+        <v>321</v>
+      </c>
+      <c r="D161" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>215</v>
+      </c>
+      <c r="B162" t="s">
+        <v>322</v>
+      </c>
+      <c r="C162" t="s">
+        <v>323</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>215</v>
+      </c>
+      <c r="B163" t="s">
+        <v>324</v>
+      </c>
+      <c r="C163" t="s">
+        <v>325</v>
+      </c>
+      <c r="D163" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>215</v>
+      </c>
+      <c r="B164" t="s">
+        <v>326</v>
+      </c>
+      <c r="C164" t="s">
+        <v>327</v>
+      </c>
+      <c r="D164" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>215</v>
+      </c>
+      <c r="B165" t="s">
+        <v>328</v>
+      </c>
+      <c r="C165" t="s">
+        <v>329</v>
+      </c>
+      <c r="D165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>215</v>
+      </c>
+      <c r="B166" t="s">
+        <v>330</v>
+      </c>
+      <c r="C166" t="s">
+        <v>331</v>
+      </c>
+      <c r="D166" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>215</v>
+      </c>
+      <c r="B167" t="s">
+        <v>332</v>
+      </c>
+      <c r="C167" t="s">
+        <v>333</v>
+      </c>
+      <c r="D167" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>215</v>
+      </c>
+      <c r="B168" t="s">
+        <v>334</v>
+      </c>
+      <c r="C168" t="s">
+        <v>335</v>
+      </c>
+      <c r="D168" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>215</v>
+      </c>
+      <c r="B169" t="s">
+        <v>336</v>
+      </c>
+      <c r="C169" t="s">
+        <v>337</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>215</v>
+      </c>
+      <c r="B170" t="s">
+        <v>338</v>
+      </c>
+      <c r="C170" t="s">
+        <v>339</v>
+      </c>
+      <c r="D170" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>215</v>
+      </c>
+      <c r="B171" t="s">
+        <v>340</v>
+      </c>
+      <c r="C171" t="s">
+        <v>341</v>
+      </c>
+      <c r="D171" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>215</v>
+      </c>
+      <c r="B172" t="s">
+        <v>342</v>
+      </c>
+      <c r="C172" t="s">
+        <v>343</v>
+      </c>
+      <c r="D172" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>215</v>
+      </c>
+      <c r="B173" t="s">
+        <v>344</v>
+      </c>
+      <c r="C173" t="s">
+        <v>345</v>
+      </c>
+      <c r="D173" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>215</v>
+      </c>
+      <c r="B174" t="s">
+        <v>346</v>
+      </c>
+      <c r="C174" t="s">
+        <v>347</v>
+      </c>
+      <c r="D174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>215</v>
+      </c>
+      <c r="B175" t="s">
+        <v>348</v>
+      </c>
+      <c r="C175" t="s">
+        <v>349</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>212</v>
+      </c>
+      <c r="B176" t="s">
+        <v>350</v>
+      </c>
+      <c r="C176" t="s">
+        <v>351</v>
+      </c>
+      <c r="D176" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>215</v>
+      </c>
+      <c r="B177" t="s">
+        <v>352</v>
+      </c>
+      <c r="C177" t="s">
+        <v>353</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>215</v>
+      </c>
+      <c r="B178" t="s">
+        <v>354</v>
+      </c>
+      <c r="C178" t="s">
+        <v>355</v>
+      </c>
+      <c r="D178" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>215</v>
+      </c>
+      <c r="B179" t="s">
+        <v>356</v>
+      </c>
+      <c r="C179" t="s">
+        <v>357</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>215</v>
+      </c>
+      <c r="B180" t="s">
+        <v>358</v>
+      </c>
+      <c r="C180" t="s">
+        <v>359</v>
+      </c>
+      <c r="D180" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>215</v>
+      </c>
+      <c r="B181" t="s">
+        <v>360</v>
+      </c>
+      <c r="C181" t="s">
+        <v>361</v>
+      </c>
+      <c r="D181" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>212</v>
+      </c>
+      <c r="B182" t="s">
+        <v>362</v>
+      </c>
+      <c r="C182" t="s">
+        <v>363</v>
+      </c>
+      <c r="D182" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>215</v>
+      </c>
+      <c r="B183" t="s">
+        <v>364</v>
+      </c>
+      <c r="C183" t="s">
+        <v>365</v>
+      </c>
+      <c r="D183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>215</v>
+      </c>
+      <c r="B184" t="s">
+        <v>366</v>
+      </c>
+      <c r="C184" t="s">
+        <v>367</v>
+      </c>
+      <c r="D184" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>215</v>
+      </c>
+      <c r="B185" t="s">
+        <v>368</v>
+      </c>
+      <c r="C185" t="s">
+        <v>369</v>
+      </c>
+      <c r="D185" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>212</v>
+      </c>
+      <c r="B186" t="s">
+        <v>370</v>
+      </c>
+      <c r="C186" t="s">
+        <v>371</v>
+      </c>
+      <c r="D186" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>215</v>
+      </c>
+      <c r="B187" t="s">
+        <v>372</v>
+      </c>
+      <c r="C187" t="s">
+        <v>373</v>
+      </c>
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>215</v>
+      </c>
+      <c r="B188" t="s">
+        <v>374</v>
+      </c>
+      <c r="C188" t="s">
+        <v>375</v>
+      </c>
+      <c r="D188" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>215</v>
+      </c>
+      <c r="B189" t="s">
+        <v>376</v>
+      </c>
+      <c r="C189" t="s">
+        <v>377</v>
+      </c>
+      <c r="D189" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>215</v>
+      </c>
+      <c r="B190" t="s">
+        <v>378</v>
+      </c>
+      <c r="C190" t="s">
+        <v>379</v>
+      </c>
+      <c r="D190" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>215</v>
+      </c>
+      <c r="B191" t="s">
+        <v>380</v>
+      </c>
+      <c r="C191" t="s">
+        <v>381</v>
+      </c>
+      <c r="D191" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>215</v>
+      </c>
+      <c r="B192" t="s">
+        <v>382</v>
+      </c>
+      <c r="C192" t="s">
+        <v>383</v>
+      </c>
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
